--- a/DataAnalysis/UniProjects/MaciejBroda_KorelacjaSpearman'a.xlsx
+++ b/DataAnalysis/UniProjects/MaciejBroda_KorelacjaSpearman'a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macie\OneDrive\Pulpit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD19928-804E-4F3F-88B3-6004BCA5D764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE241777-31EF-4662-ADE9-67CE3C75DE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="2385" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Korelacja Spearman'a" sheetId="1" r:id="rId1"/>
@@ -37,12 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Czy słuchając muzyki podczas nauki, lepiej koncentrujesz się nad tym czego się uczysz?</t>
-  </si>
-  <si>
-    <t>Wzór na korelację rang</t>
   </si>
   <si>
     <t>porządek X</t>
@@ -142,7 +139,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,12 +247,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Roboto"/>
@@ -265,37 +256,25 @@
       <color rgb="FF434343"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC5D3FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF91A0E8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF909EE6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7CEB99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -323,31 +302,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC6C6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF29B95C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA2A2A2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF63A4F7"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,103 +520,111 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="15" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="15" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="15" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="16" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="16" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="16" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="10"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -647,24 +646,9 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FF29B95C"/>
+          <bgColor theme="6" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <charset val="238"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -688,24 +672,9 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FF29B95C"/>
+          <bgColor theme="6" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <charset val="238"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -729,23 +698,9 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FF29B95C"/>
+          <bgColor theme="6" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <charset val="238"/>
-      </font>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -769,23 +724,9 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FF29B95C"/>
+          <bgColor theme="6" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <charset val="238"/>
-      </font>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -809,7 +750,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FF29B95C"/>
+          <bgColor theme="6" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -817,15 +758,53 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
         <charset val="238"/>
+        <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -849,7 +828,28 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FF29B95C"/>
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -866,32 +866,22 @@
         <color theme="1"/>
         <charset val="238"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
         <charset val="238"/>
-        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF29B95C"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -911,27 +901,15 @@
     <dxf>
       <font>
         <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
         <charset val="238"/>
-        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF29B95C"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -949,13 +927,46 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF29B95C"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <charset val="238"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <charset val="238"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <charset val="238"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -971,27 +982,6 @@
         <charset val="238"/>
       </font>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC6C6"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1027,19 +1017,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -1047,7 +1031,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pl-PL"/>
-              <a:t>Wykres</a:t>
+              <a:t>Model</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1065,19 +1049,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -1170,7 +1148,6 @@
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
-                <a:prstDash val="sysDash"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1193,8 +1170,9 @@
                   <a:pPr>
                     <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="75000"/>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
                         </a:schemeClr>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
@@ -1338,9 +1316,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1355,10 +1333,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="75000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1386,10 +1365,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="75000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1407,12 +1387,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1423,8 +1399,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1450,9 +1427,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1467,10 +1444,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="75000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1498,10 +1476,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="75000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1519,12 +1498,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1535,8 +1510,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1571,28 +1547,17 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1655,76 +1620,73 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1743,6 +1705,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -1831,18 +1801,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1852,20 +1825,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1879,14 +1852,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1900,8 +1873,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1913,7 +1887,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -1926,9 +1900,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1943,13 +1917,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1961,14 +1936,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1980,13 +1955,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1995,8 +1971,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2006,7 +1983,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -2014,7 +1991,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2022,17 +1999,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2042,14 +2022,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2061,19 +2041,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2082,14 +2055,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2098,8 +2070,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2109,7 +2082,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2117,9 +2090,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2130,19 +2103,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2150,7 +2115,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -2158,71 +2123,18 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>367553</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>37539</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1403877</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>127150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Obraz 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2887C835-B4B9-462C-8126-76D2F21D8DF5}"/>
-            </a:ext>
-            <a:ext uri="{C183D7F6-B498-43B3-948B-1728B52AA6E4}">
-              <adec:decorative xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" val="1"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11483788" y="6245598"/>
-          <a:ext cx="2930118" cy="1322258"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>11207</xdr:rowOff>
+      <xdr:rowOff>179294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>-1</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2241,7 +2153,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2251,26 +2163,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FAAA9851-C0EB-4219-A85F-22354D1E0E24}" name="Obliczenia" displayName="Obliczenia" ref="C8:J23" totalsRowCount="1" headerRowDxfId="18" dataDxfId="17" totalsRowDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FAAA9851-C0EB-4219-A85F-22354D1E0E24}" name="Obliczenia" displayName="Obliczenia" ref="C8:J23" totalsRowCount="1" headerRowDxfId="9" dataDxfId="18" totalsRowDxfId="0">
   <autoFilter ref="C8:J22" xr:uid="{FAAA9851-C0EB-4219-A85F-22354D1E0E24}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C9:J22">
     <sortCondition ref="E8:E22"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{328BDA89-D54A-4510-8540-1593435B1BE5}" name="X" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{A2116E12-B634-4E00-AF79-8973161650FC}" name="Y" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{C294C629-F633-44F2-9D72-B8E324A7964E}" name="porządek X" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{AD826813-1C10-4A62-BF34-84BA75D5A61D}" name="porządek Y" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{397975D2-3608-4C54-89BD-D6A9D2D0427E}" name="Rangi X" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{9570299D-D4A3-4013-987A-4721D00A2629}" name="Rangi Y" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{EE8B6848-7558-4C52-A9DA-E87F967F3D08}" name="di=Rx-Ry" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2">
+    <tableColumn id="1" xr3:uid="{328BDA89-D54A-4510-8540-1593435B1BE5}" name="X" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{A2116E12-B634-4E00-AF79-8973161650FC}" name="Y" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{C294C629-F633-44F2-9D72-B8E324A7964E}" name="porządek X" dataDxfId="15" totalsRowDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{AD826813-1C10-4A62-BF34-84BA75D5A61D}" name="porządek Y" dataDxfId="14" totalsRowDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{397975D2-3608-4C54-89BD-D6A9D2D0427E}" name="Rangi X" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{9570299D-D4A3-4013-987A-4721D00A2629}" name="Rangi Y" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{EE8B6848-7558-4C52-A9DA-E87F967F3D08}" name="di=Rx-Ry" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="2">
       <calculatedColumnFormula>Obliczenia[[#This Row],[Rangi X]]-Obliczenia[[#This Row],[Rangi Y]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{5ED4FF89-3CDC-4F04-82A9-4A8DFC4DEF07}" name="(Rx-Ry)^2" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="8" xr3:uid="{5ED4FF89-3CDC-4F04-82A9-4A8DFC4DEF07}" name="(Rx-Ry)^2" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="1">
       <calculatedColumnFormula>Obliczenia[[#This Row],[di=Rx-Ry]]^2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium28" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2557,10 +2469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF41"/>
+  <dimension ref="A1:AF43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T63" sqref="T63"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2574,712 +2486,713 @@
     <col min="14" max="14" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1"/>
     </row>
-    <row r="2" spans="1:32" s="6" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
-    </row>
-    <row r="3" spans="1:32" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+    </row>
+    <row r="3" spans="1:32" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-    </row>
-    <row r="4" spans="1:32" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+    </row>
+    <row r="4" spans="1:32" s="28" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A4"/>
-      <c r="B4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="5"/>
-    </row>
-    <row r="5" spans="1:32" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="34"/>
+      <c r="AF4" s="34"/>
+    </row>
+    <row r="5" spans="1:32" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5"/>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+    </row>
+    <row r="6" spans="1:32" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6"/>
+      <c r="C6" s="38" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:32" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6"/>
-      <c r="C6" s="33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+    </row>
+    <row r="7" spans="1:32" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7"/>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+    </row>
+    <row r="8" spans="1:32" s="10" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A8"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:32" s="24" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A8"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="20" t="s">
+      <c r="N8" s="11">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A9"/>
+      <c r="B9" s="36">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1">
         <v>2</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="M8" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="N8" s="25">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A9"/>
-      <c r="B9" s="26">
-        <v>1</v>
-      </c>
-      <c r="C9" s="10">
-        <v>1</v>
-      </c>
-      <c r="D9" s="10">
-        <v>9</v>
-      </c>
-      <c r="E9" s="10">
-        <v>1</v>
-      </c>
-      <c r="F9" s="10">
-        <v>13</v>
-      </c>
-      <c r="G9" s="10">
-        <v>2</v>
-      </c>
-      <c r="H9" s="10">
+      <c r="H9" s="1">
         <v>13.5</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="1">
         <f>Obliczenia[[#This Row],[Rangi X]]-Obliczenia[[#This Row],[Rangi Y]]</f>
         <v>-11.5</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="1">
         <f>Obliczenia[[#This Row],[di=Rx-Ry]]^2</f>
         <v>132.25</v>
       </c>
-      <c r="K9" s="28"/>
-      <c r="M9" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" s="23">
+      <c r="K9" s="12"/>
+      <c r="M9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="9">
         <v>7.5</v>
       </c>
     </row>
-    <row r="10" spans="1:32" s="24" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" s="10" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A10"/>
-      <c r="B10" s="26">
+      <c r="B10" s="36">
         <v>2</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="1">
         <v>2</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="1">
         <v>2</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="1">
         <v>1.5</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="1">
         <f>Obliczenia[[#This Row],[Rangi X]]-Obliczenia[[#This Row],[Rangi Y]]</f>
         <v>0.5</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="1">
         <f>Obliczenia[[#This Row],[di=Rx-Ry]]^2</f>
         <v>0.25</v>
       </c>
-      <c r="M10" s="24" t="s">
+      <c r="M10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:32" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A11"/>
-      <c r="B11" s="26">
+      <c r="B11" s="36">
         <v>3</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="1">
         <v>3</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="1">
         <v>2</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="1">
         <v>2</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="1">
         <v>1.5</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="1">
         <f>Obliczenia[[#This Row],[Rangi X]]-Obliczenia[[#This Row],[Rangi Y]]</f>
         <v>0.5</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="1">
         <f>Obliczenia[[#This Row],[di=Rx-Ry]]^2</f>
         <v>0.25</v>
       </c>
-      <c r="M11" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="N11" s="23">
+      <c r="M11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:32" s="24" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" s="10" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A12"/>
-      <c r="B12" s="26">
+      <c r="B12" s="36">
         <v>4</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="1">
         <v>2</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="1">
         <v>4</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="1">
         <v>4</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="1">
         <v>3</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="1">
         <v>4.5</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="1">
         <v>3</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="1">
         <f>Obliczenia[[#This Row],[Rangi X]]-Obliczenia[[#This Row],[Rangi Y]]</f>
         <v>1.5</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="1">
         <f>Obliczenia[[#This Row],[di=Rx-Ry]]^2</f>
         <v>2.25</v>
       </c>
-      <c r="M12" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="N12" s="25">
+      <c r="M12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="11">
         <f>ROUND(Obliczenia[[#Totals],[X]]/B22,2)</f>
         <v>4.79</v>
       </c>
     </row>
-    <row r="13" spans="1:32" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A13"/>
-      <c r="B13" s="26">
+      <c r="B13" s="36">
         <v>5</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="1">
         <v>2</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="1">
         <v>5</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="1">
         <v>5</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="1">
         <v>4</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="1">
         <v>4.5</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="1">
         <v>5</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="1">
         <f>Obliczenia[[#This Row],[Rangi X]]-Obliczenia[[#This Row],[Rangi Y]]</f>
         <v>-0.5</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="1">
         <f>Obliczenia[[#This Row],[di=Rx-Ry]]^2</f>
         <v>0.25</v>
       </c>
-      <c r="M13" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="N13" s="23">
+      <c r="M13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" s="9">
         <f>ROUND(Obliczenia[[#Totals],[Y]]/B22,2)</f>
         <v>5.79</v>
       </c>
     </row>
-    <row r="14" spans="1:32" s="24" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" s="10" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A14"/>
-      <c r="B14" s="26">
+      <c r="B14" s="36">
         <v>6</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="1">
         <v>3</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="1">
         <v>6</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="1">
         <v>6</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="1">
         <v>7</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="1">
         <v>6</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="1">
         <v>7.5</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="1">
         <f>Obliczenia[[#This Row],[Rangi X]]-Obliczenia[[#This Row],[Rangi Y]]</f>
         <v>-1.5</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="1">
         <f>Obliczenia[[#This Row],[di=Rx-Ry]]^2</f>
         <v>2.25</v>
       </c>
-      <c r="M14" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="N14" s="25">
+      <c r="M14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:32" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A15"/>
-      <c r="B15" s="26">
+      <c r="B15" s="36">
         <v>7</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="1">
         <v>5</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="1">
         <v>7</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="1">
         <v>7</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="1">
         <v>9</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="1">
         <v>8</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="1">
         <v>9.5</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="1">
         <f>Obliczenia[[#This Row],[Rangi X]]-Obliczenia[[#This Row],[Rangi Y]]</f>
         <v>-1.5</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="1">
         <f>Obliczenia[[#This Row],[di=Rx-Ry]]^2</f>
         <v>2.25</v>
       </c>
-      <c r="M15" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="N15" s="23">
+      <c r="M15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N15" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:32" s="24" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" s="10" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A16"/>
-      <c r="B16" s="26">
+      <c r="B16" s="36">
         <v>8</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="1">
         <v>5</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="1">
         <v>5</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="1">
         <v>8</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="1">
         <v>5</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="1">
         <v>8</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="1">
         <v>5</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="1">
         <f>Obliczenia[[#This Row],[Rangi X]]-Obliczenia[[#This Row],[Rangi Y]]</f>
         <v>3</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="1">
         <f>Obliczenia[[#This Row],[di=Rx-Ry]]^2</f>
         <v>9</v>
       </c>
-      <c r="M16" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="N16" s="25" t="s">
+      <c r="M16" s="10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="N16" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A17"/>
-      <c r="B17" s="26">
+      <c r="B17" s="36">
         <v>9</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="1">
         <v>5</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="1">
         <v>5</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="1">
         <v>9</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="1">
         <v>6</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="1">
         <v>8</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="1">
         <v>5</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="1">
         <f>Obliczenia[[#This Row],[Rangi X]]-Obliczenia[[#This Row],[Rangi Y]]</f>
         <v>3</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="1">
         <f>Obliczenia[[#This Row],[di=Rx-Ry]]^2</f>
         <v>9</v>
       </c>
-      <c r="M17" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="N17" s="23">
+      <c r="M17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N17" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="11" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" s="25" customFormat="1" ht="24" x14ac:dyDescent="0.35">
       <c r="A18"/>
-      <c r="B18" s="26">
+      <c r="B18" s="36">
         <v>10</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="1">
         <v>7</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="1">
         <v>8</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="1">
         <v>10</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="1">
         <v>11</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="1">
         <v>10</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="1">
         <v>11.5</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="1">
         <f>Obliczenia[[#This Row],[Rangi X]]-Obliczenia[[#This Row],[Rangi Y]]</f>
         <v>-1.5</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="1">
         <f>Obliczenia[[#This Row],[di=Rx-Ry]]^2</f>
         <v>2.25</v>
       </c>
-      <c r="M18" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="N18" s="29">
+      <c r="M18" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="N18" s="27">
         <f>ROUND(1-((6*J23)/(14*(14^2-1))),2)</f>
         <v>0.54</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="27" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19"/>
-      <c r="B19" s="26">
+      <c r="B19" s="36">
         <v>11</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="1">
         <v>8</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="1">
         <v>9</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="1">
         <v>11</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="1">
         <v>14</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="1">
         <v>11</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="1">
         <v>13.5</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="1">
         <f>Obliczenia[[#This Row],[Rangi X]]-Obliczenia[[#This Row],[Rangi Y]]</f>
         <v>-2.5</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="1">
         <f>Obliczenia[[#This Row],[di=Rx-Ry]]^2</f>
         <v>6.25</v>
       </c>
-      <c r="M19" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-    </row>
-    <row r="20" spans="1:20" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="K19" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+    </row>
+    <row r="20" spans="1:18" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20"/>
-      <c r="B20" s="26">
+      <c r="B20" s="36">
         <v>12</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="1">
         <v>9</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="1">
         <v>8</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="1">
         <v>12</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="1">
         <v>12</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="1">
         <v>13</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="1">
         <v>11.5</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="1">
         <f>Obliczenia[[#This Row],[Rangi X]]-Obliczenia[[#This Row],[Rangi Y]]</f>
         <v>1.5</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J20" s="1">
         <f>Obliczenia[[#This Row],[di=Rx-Ry]]^2</f>
         <v>2.25</v>
       </c>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
-    </row>
-    <row r="21" spans="1:20" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+    </row>
+    <row r="21" spans="1:18" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21"/>
-      <c r="B21" s="26">
+      <c r="B21" s="36">
         <v>13</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="1">
         <v>9</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="1">
         <v>7</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="1">
         <v>13</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="1">
         <v>10</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="1">
         <v>13</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="1">
         <v>9.5</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="1">
         <f>Obliczenia[[#This Row],[Rangi X]]-Obliczenia[[#This Row],[Rangi Y]]</f>
         <v>3.5</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="1">
         <f>Obliczenia[[#This Row],[di=Rx-Ry]]^2</f>
         <v>12.25</v>
       </c>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="31"/>
-      <c r="T21" s="31"/>
-    </row>
-    <row r="22" spans="1:20" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+    </row>
+    <row r="22" spans="1:18" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22"/>
-      <c r="B22" s="26">
+      <c r="B22" s="36">
         <v>14</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="1">
         <v>9</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="1">
         <v>6</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="1">
         <v>14</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="1">
         <v>8</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="1">
         <v>13</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="1">
         <v>7.5</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="1">
         <f>Obliczenia[[#This Row],[Rangi X]]-Obliczenia[[#This Row],[Rangi Y]]</f>
         <v>5.5</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J22" s="1">
         <f>Obliczenia[[#This Row],[di=Rx-Ry]]^2</f>
         <v>30.25</v>
       </c>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="31"/>
-      <c r="T22" s="31"/>
-    </row>
-    <row r="23" spans="1:20" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+    </row>
+    <row r="23" spans="1:18" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23"/>
-      <c r="B23" s="34" t="s">
-        <v>13</v>
+      <c r="B23" s="37" t="s">
+        <v>12</v>
       </c>
       <c r="C23" s="21">
         <f>SUBTOTAL(109,Obliczenia[X])</f>
@@ -3307,16 +3220,16 @@
         <f>SUBTOTAL(109,Obliczenia[(Rx-Ry)^2])</f>
         <v>211</v>
       </c>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="31"/>
-      <c r="S23" s="31"/>
-      <c r="T23" s="31"/>
-    </row>
-    <row r="24" spans="1:20" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+    </row>
+    <row r="24" spans="1:18" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -3327,58 +3240,264 @@
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31"/>
-    </row>
-    <row r="25" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="M37" s="30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+    </row>
+    <row r="25" spans="1:18" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+    </row>
+    <row r="26" spans="1:18" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+    </row>
+    <row r="27" spans="1:18" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+    </row>
+    <row r="28" spans="1:18" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
+    </row>
+    <row r="29" spans="1:18" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+    </row>
+    <row r="30" spans="1:18" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+    </row>
+    <row r="31" spans="1:18" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+    </row>
+    <row r="32" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+    </row>
+    <row r="33" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+    </row>
+    <row r="34" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+    </row>
+    <row r="35" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+    </row>
+    <row r="36" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+    </row>
+    <row r="37" spans="1:13" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="M37" s="23"/>
+    </row>
+    <row r="38" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+    </row>
+    <row r="39" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+    </row>
+    <row r="40" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40"/>
-      <c r="B40" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="32"/>
-    </row>
-    <row r="41" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="32"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B42" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="M19:T24"/>
-    <mergeCell ref="B40:K41"/>
+    <mergeCell ref="B42:K43"/>
+    <mergeCell ref="K19:R28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -3407,167 +3526,167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17">
+      <c r="A2" s="6">
         <v>45639.634479166663</v>
       </c>
-      <c r="B2" s="35">
+      <c r="B2" s="13">
         <v>8</v>
       </c>
-      <c r="C2" s="38">
+      <c r="C2" s="16">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="18">
+      <c r="A3" s="7">
         <v>45639.637164351851</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="14">
         <v>1</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="17">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="17">
+      <c r="A4" s="6">
         <v>45639.63863425926</v>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="13">
         <v>9</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="16">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="18">
+      <c r="A5" s="7">
         <v>45639.650555555556</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="14">
         <v>2</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="17">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="17">
+      <c r="A6" s="6">
         <v>45639.670104166667</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B6" s="13">
         <v>9</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="16">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="18">
+      <c r="A7" s="7">
         <v>45639.713587962964</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="14">
         <v>7</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="17">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="17">
+      <c r="A8" s="6">
         <v>45639.714826388888</v>
       </c>
-      <c r="B8" s="35">
+      <c r="B8" s="13">
         <v>9</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="16">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="18">
+      <c r="A9" s="7">
         <v>45639.717905092592</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="14">
         <v>2</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="17">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="17">
+      <c r="A10" s="6">
         <v>45640.409328703703</v>
       </c>
-      <c r="B10" s="35">
+      <c r="B10" s="13">
         <v>3</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="16">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="18">
+      <c r="A11" s="7">
         <v>45640.417974537035</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="14">
         <v>1</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="17">
+      <c r="A12" s="6">
         <v>45640.424733796295</v>
       </c>
-      <c r="B12" s="35">
+      <c r="B12" s="13">
         <v>5</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="16">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="18">
+      <c r="A13" s="7">
         <v>45640.438819444447</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="14">
         <v>5</v>
       </c>
-      <c r="C13" s="39">
+      <c r="C13" s="17">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="17">
+      <c r="A14" s="6">
         <v>45640.47016203704</v>
       </c>
-      <c r="B14" s="35">
+      <c r="B14" s="13">
         <v>1</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="19">
+      <c r="A15" s="8">
         <v>45640.473402777781</v>
       </c>
-      <c r="B15" s="37">
+      <c r="B15" s="15">
         <v>5</v>
       </c>
-      <c r="C15" s="40">
+      <c r="C15" s="18">
         <v>5</v>
       </c>
     </row>
